--- a/data/CattleData/Cattle.xlsx
+++ b/data/CattleData/Cattle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saban\Saba PhD Work\LiveStockHealthOntologyPigPoultryCattleUseCase(DECIDE)(Conference)\data\CattleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f299cdb484b5a2f/Decide Repository/LivestockHealthOntologyIntegration-CattlePigPoultryUsecase-/data/CattleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B6464C-8870-43EE-A3C1-71F5E06621D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F2B6464C-8870-43EE-A3C1-71F5E06621D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB542B9A-820C-4542-BD7C-E17EE4FED67B}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="0" windowWidth="17304" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>LabReference</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Province</t>
   </si>
   <si>
-    <t>FarmID</t>
-  </si>
-  <si>
     <t>DiagnosticTest</t>
   </si>
   <si>
@@ -60,19 +57,10 @@
     <t>Gelderland</t>
   </si>
   <si>
-    <t>476751a49a66b5646345d00de7c91c724b2d6b35db697a208abcd37665ff6a99</t>
-  </si>
-  <si>
     <t>Culture</t>
   </si>
   <si>
-    <t>ee3e186a9b0eb6b217968609d3adf5f05695c86419d9a464b9e6bfa82bfc3851</t>
-  </si>
-  <si>
     <t>North Brabant</t>
-  </si>
-  <si>
-    <t>765a1dbb2da61669fa5aa73622e749b0618c17351784d87ff02fbb30966c827b</t>
   </si>
   <si>
     <t>Mixed</t>
@@ -424,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +423,7 @@
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,140 +451,128 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>43101</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>43101</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>43101</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
